--- a/trabalho01/simplex.xlsx
+++ b/trabalho01/simplex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acsjunior/Documents/Projects/ppgmne-mnum7078/trabalho01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2E9407-2F3C-EB4F-8429-CA8A00BF398E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFA08F9-7A8B-6045-BC4B-B4BABE1B13F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="1060" windowWidth="28040" windowHeight="16940" firstSheet="3" activeTab="10" xr2:uid="{DBB1957E-1DC2-5347-B502-DCE3EC825267}"/>
+    <workbookView xWindow="460" yWindow="1060" windowWidth="28040" windowHeight="16940" xr2:uid="{DBB1957E-1DC2-5347-B502-DCE3EC825267}"/>
   </bookViews>
   <sheets>
     <sheet name="Prob1 - Simplex" sheetId="9" r:id="rId1"/>
@@ -2367,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6801E057-D139-AE40-9C3C-DAEEA1870B7F}">
   <dimension ref="A2:Z48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6256,7 +6256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2239A47-522E-4E4E-A829-C3C12D32A53A}">
   <dimension ref="A2:Q117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A98" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -9433,7 +9433,7 @@
   <dimension ref="D3:O10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9654,7 +9654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E9C7F5-513E-6442-9B69-789CADF38D93}">
   <dimension ref="A2:S84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
